--- a/plots/countries/plot data/Sweden.xlsx
+++ b/plots/countries/plot data/Sweden.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>7.40631683755495</v>
+        <v>7.29373564346723</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0934340842279</v>
+        <v>10.9342413994477</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.426488425474165</v>
+        <v>0.459121517372419</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>10.8509893807564</v>
+        <v>10.7857348660053</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>20.0433712795333</v>
+        <v>20.3716651730496</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>7.43830450390166</v>
+        <v>7.22585321879967</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-51.389696585006</v>
+        <v>-59.3401689863571</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.14645662254896</v>
+        <v>4.27512123131045</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>7.08713181394314</v>
+        <v>6.97846909973294</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>10.756060960196</v>
+        <v>10.6549997408207</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.387133019841593</v>
+        <v>0.420070770544029</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>10.7414660393576</v>
+        <v>10.6701248260754</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>20.1794827994035</v>
+        <v>20.4549061691007</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>7.20802078972437</v>
+        <v>7.01394239389916</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-51.1484818168881</v>
+        <v>-58.35031954042</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.21885973291441</v>
+        <v>4.34809863466661</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>7.03700624656034</v>
+        <v>6.93686477273944</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>10.1715134460927</v>
+        <v>10.0693070642239</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.414485385509543</v>
+        <v>0.44933885222567</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>9.91895763044802</v>
+        <v>9.83365620993901</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>21.1581036125823</v>
+        <v>21.4507592583121</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>6.7042523404232</v>
+        <v>6.52693210757476</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-50.1727901141637</v>
+        <v>-57.4427041167447</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>4.23167751104641</v>
+        <v>4.36150471495127</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>7.35630562964728</v>
+        <v>7.24790073920145</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>10.1597236931246</v>
+        <v>10.0507900196677</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.449236352219615</v>
+        <v>0.484249594610564</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>10.6297375531924</v>
+        <v>10.5429728217172</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>20.1529850800589</v>
+        <v>20.4497983710967</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>6.85424259941251</v>
+        <v>6.69410371989085</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-46.2493049652982</v>
+        <v>-53.6072617327939</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.09741234675254</v>
+        <v>4.22785138224295</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>7.4931783403282</v>
+        <v>7.39055353919809</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>10.2157227114505</v>
+        <v>10.1030182791046</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.401121653819844</v>
+        <v>0.435842743757698</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>11.6631098788416</v>
+        <v>11.5685507490432</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>20.6553053503684</v>
+        <v>20.9750733928945</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>7.32298404371297</v>
+        <v>7.17833675746809</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-47.7576969200933</v>
+        <v>-55.1567995777396</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>3.9502656909149</v>
+        <v>4.08140265678958</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>7.3054314565655</v>
+        <v>7.2018928679791</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>9.73058309431317</v>
+        <v>9.63179647845358</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.440318900458565</v>
+        <v>0.474677794341209</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>12.0395026964757</v>
+        <v>11.9465377801802</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>20.6783125838962</v>
+        <v>20.980265353455</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>7.70476838427408</v>
+        <v>7.56622799243368</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-47.8136741506669</v>
+        <v>-55.2763351548736</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>3.94326005387721</v>
+        <v>4.07491170950268</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>7.37515509359191</v>
+        <v>7.2688970500342</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>9.79611687853987</v>
+        <v>9.6496220208492</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.432940356521749</v>
+        <v>0.468657423181095</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>11.9538683422235</v>
+        <v>11.8680670848316</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>20.3466926357314</v>
+        <v>20.6748313096035</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>7.46804162468097</v>
+        <v>7.33548507189504</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-49.9046447753152</v>
+        <v>-57.4142655052858</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>3.91403873159317</v>
+        <v>4.04615994284654</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>7.41173716147618</v>
+        <v>7.31159060503317</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>9.03064739842632</v>
+        <v>8.87684674436195</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.466812438723268</v>
+        <v>0.501352645046917</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>12.3936439430794</v>
+        <v>12.3036973733976</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>20.368306096246</v>
+        <v>20.7056908475087</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>7.52109812136685</v>
+        <v>7.39496060338541</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-51.1883586768638</v>
+        <v>-58.7695546902545</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>3.87627819533476</v>
+        <v>4.00886354011307</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>7.3011406984319</v>
+        <v>7.19851404238489</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>8.9405937802575</v>
+        <v>8.80347364343548</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.478436103748996</v>
+        <v>0.512420294031383</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>11.7951658449482</v>
+        <v>11.6981983841635</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>20.3928752818775</v>
+        <v>20.7081341885581</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>7.70361422647337</v>
+        <v>7.58348865991097</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-51.7767402605612</v>
+        <v>-59.3970222520176</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>3.81757197519052</v>
+        <v>3.9506474967676</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>7.09055093269909</v>
+        <v>6.97795438459584</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>8.3846343231112</v>
+        <v>8.26170330776618</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>0.485688293357295</v>
+        <v>0.519376940269347</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>11.0190657290678</v>
+        <v>10.9228221919801</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>20.6778735925078</v>
+        <v>20.970301105311</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>7.6704290471732</v>
+        <v>7.54813575960781</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-52.0836762809519</v>
+        <v>-59.6992339957103</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>3.67074850920288</v>
+        <v>3.80432385425148</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>7.06920373039415</v>
+        <v>6.96362234834017</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>8.17943291971291</v>
+        <v>8.06486476083777</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.481753752779298</v>
+        <v>0.513852532999655</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>11.3207537145392</v>
+        <v>11.2335914592669</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>20.5014306212721</v>
+        <v>20.784555457132</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>8.11753119549442</v>
+        <v>7.99437579761087</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-53.3336641949339</v>
+        <v>-60.9961947750983</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>3.5640812509507</v>
+        <v>3.69822868244401</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>7.01156975773684</v>
+        <v>6.89788636340127</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>7.35167002630763</v>
+        <v>7.2479064688917</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.487163800994674</v>
+        <v>0.519726882805264</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>11.384918435918</v>
+        <v>11.3056165825849</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>20.5384704075371</v>
+        <v>20.7828171456439</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>8.21241676336873</v>
+        <v>8.09242001905138</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-54.2202947793861</v>
+        <v>-61.9153879420185</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>3.50696934757413</v>
+        <v>3.64206596713002</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>6.91719958201594</v>
+        <v>6.80413408153526</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>6.88672664252277</v>
+        <v>6.78666844666501</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.476324274717194</v>
+        <v>0.509864581706416</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>11.0973424660155</v>
+        <v>11.0162273562985</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>21.0434175127534</v>
+        <v>21.2901120907149</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>8.4498191868792</v>
+        <v>8.32936659465132</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-53.89616254281</v>
+        <v>-61.5720471158547</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>3.31041216084867</v>
+        <v>3.44649486813216</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>6.80056482843516</v>
+        <v>6.68318278783019</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>6.60973069895821</v>
+        <v>6.50513176349477</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.487502852380586</v>
+        <v>0.519820474976381</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>10.9758446451733</v>
+        <v>10.8818301679096</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>21.2390926138117</v>
+        <v>21.4864777858115</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>8.09595909947579</v>
+        <v>7.97274787742221</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-51.8523391239024</v>
+        <v>-59.8760105416678</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>3.16229685614049</v>
+        <v>3.29939469806373</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>6.82717643744836</v>
+        <v>6.70866204585324</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>6.34442480343225</v>
+        <v>6.2316123614354</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.49236887749105</v>
+        <v>0.524813542425614</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>10.6197895987606</v>
+        <v>10.5183046823073</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>21.5643376498002</v>
+        <v>21.8266545817221</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>8.65318170545621</v>
+        <v>8.51229056187427</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-48.9673020752835</v>
+        <v>-56.5816845698162</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>3.14321093441958</v>
+        <v>3.28134296069421</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>6.6826423999339</v>
+        <v>6.54759277343843</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>5.21609598147518</v>
+        <v>5.09226657483712</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.459927673496245</v>
+        <v>0.493831809140115</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>9.98688512801897</v>
+        <v>9.88150663865132</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>21.7575665871709</v>
+        <v>22.0429961818441</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>8.57098298120047</v>
+        <v>8.42328040616957</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-50.6833862644681</v>
+        <v>-58.2378479104171</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>2.98569945965638</v>
+        <v>3.12488411627713</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>6.55158221752356</v>
+        <v>6.4210932109895</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>4.58317580223681</v>
+        <v>4.45851952194236</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>0.905069940984097</v>
+        <v>0.937291961446868</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>10.0672043223876</v>
+        <v>9.95316297972136</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>21.7300716057348</v>
+        <v>22.0072735843687</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>8.53399521883198</v>
+        <v>8.40469340546044</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-55.1062948317204</v>
+        <v>-62.8321931261951</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>2.87675617544051</v>
+        <v>3.01825626403833</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>6.56395975457457</v>
+        <v>6.43354973655169</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>4.33089913718303</v>
+        <v>4.20989695884056</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.942584990452642</v>
+        <v>0.977889208611047</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>9.61586605521033</v>
+        <v>9.52612173338245</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>22.0309021282223</v>
+        <v>22.2725875155732</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>8.48331311767156</v>
+        <v>8.33361196512422</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-54.8558925762717</v>
+        <v>-63.7285504986732</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>2.67560503822328</v>
+        <v>2.81881962046893</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>6.65517651862279</v>
+        <v>6.52069722022351</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>3.74724164284208</v>
+        <v>3.60837882438252</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.941865827218374</v>
+        <v>0.975164849499722</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>9.0112883846669</v>
+        <v>8.90548884557256</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>21.4198211138447</v>
+        <v>21.6954352342579</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>8.1768417825894</v>
+        <v>8.04065538809053</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-54.6321649318689</v>
+        <v>-61.6669683422669</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>2.37833563319075</v>
+        <v>2.52312026079985</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>6.43050754903474</v>
+        <v>6.28958293606586</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>3.48922609333195</v>
+        <v>3.34959878803907</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.940482005129875</v>
+        <v>0.981736695871268</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>7.35740651807029</v>
+        <v>7.28565425504906</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>21.0485659284915</v>
+        <v>21.2812714877696</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>6.17468568697279</v>
+        <v>6.05478007328581</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-53.5943361830793</v>
+        <v>-61.0940780334297</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>2.26693622565614</v>
+        <v>2.41365149670206</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>6.51992494349162</v>
+        <v>6.38543597531428</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>3.7421349607143</v>
+        <v>3.5807374633292</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.894772524167246</v>
+        <v>0.942021567201156</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>8.59514860843743</v>
+        <v>8.52445380488705</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>21.1448345447566</v>
+        <v>21.398446970773</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>8.16234058503223</v>
+        <v>8.04551407681293</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-56.8136563416929</v>
+        <v>-61.8010509636117</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>2.13270501967236</v>
+        <v>2.28157288342013</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>6.49753197687357</v>
+        <v>6.35757693186135</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>3.35720725516781</v>
+        <v>3.19194823033784</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.900426117681989</v>
+        <v>0.946832208189362</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>7.95447546249287</v>
+        <v>7.88225361415644</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>20.7685107376349</v>
+        <v>21.025369117959</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>7.69548393546992</v>
+        <v>7.56881948838943</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-55.9009357551335</v>
+        <v>-60.9293588349267</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>2.02231036154883</v>
+        <v>2.16538261484476</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>6.40503285242716</v>
+        <v>6.26502439326459</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>3.14205331357781</v>
+        <v>2.9943297866113</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.912321156887328</v>
+        <v>0.949764072855294</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>7.40340899118167</v>
+        <v>7.32079083750407</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>19.5962463829109</v>
+        <v>19.8392119507806</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>7.35706687027464</v>
+        <v>7.23205112495708</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-55.5512301742385</v>
+        <v>-59.1247695010618</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>1.87747071040362</v>
+        <v>2.02241284186242</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>6.47103894793062</v>
+        <v>6.33342179750283</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>2.95709276943338</v>
+        <v>2.81737730349628</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.764243163199422</v>
+        <v>0.801246436312595</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>4.91173357789632</v>
+        <v>6.93802974393232</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>5.75145253979023</v>
+        <v>9.75688884444618</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>19.1338606420424</v>
+        <v>19.3924375337727</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>7.3839940311373</v>
+        <v>7.27125945551793</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-56.611800557595</v>
+        <v>-59.0174610294772</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.76002183578901</v>
+        <v>1.89919052959635</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>6.54637826136249</v>
+        <v>6.41847864648226</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>2.81288665028866</v>
+        <v>2.66517246272827</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.830647845740507</v>
+        <v>0.867484335581204</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>5.35818792600128</v>
+        <v>6.77518315685449</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>5.4058934193583</v>
+        <v>8.85502931716373</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>18.7113819046447</v>
+        <v>18.9767611941594</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>7.27490197446072</v>
+        <v>7.162357747306</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-54.9865685086124</v>
+        <v>-57.7813637885017</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.61080141536508</v>
+        <v>1.76145550613693</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>6.55608510150946</v>
+        <v>6.43231374151262</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>2.71586431320911</v>
+        <v>2.57336605720504</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.107168468591241</v>
+        <v>0.910685320460327</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>6.38051348427409</v>
+        <v>6.9036033144032</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>8.64730273920081</v>
+        <v>8.63205886052528</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>18.8176737314647</v>
+        <v>19.084988349595</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>6.49230578617933</v>
+        <v>7.10741998654866</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-52.3413863911802</v>
+        <v>-55.3166427732708</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.48807509489716</v>
+        <v>1.63925001170815</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>6.52246303896428</v>
+        <v>6.39708951377766</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>2.55434163632877</v>
+        <v>2.40529021038561</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.102748710965066</v>
+        <v>0.733973749766</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>4.74373258434199</v>
+        <v>6.67136790829699</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>9.38672438335934</v>
+        <v>9.35947833329508</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>18.1150655300412</v>
+        <v>18.3975747988918</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>7.06091365649432</v>
+        <v>7.67530029322123</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-51.2730141430693</v>
+        <v>-52.4416428649234</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.40301309307348</v>
+        <v>1.55818476545096</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>6.63815964784144</v>
+        <v>6.51450909350091</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>2.47851953045074</v>
+        <v>2.32627862223824</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.083465332888513</v>
+        <v>0.887710944040965</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>4.69403440206422</v>
+        <v>6.56544782202928</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>9.07705879322922</v>
+        <v>9.059772342406</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>17.7026527201257</v>
+        <v>18.0106111848303</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>6.76079989557144</v>
+        <v>7.43357849009135</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-44.7030894171982</v>
+        <v>-46.3720643066571</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.34078448443398</v>
+        <v>1.49642848809052</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>6.4522003321753</v>
+        <v>6.32558624460461</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>2.29731657197716</v>
+        <v>2.15913586745365</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0782400854463164</v>
+        <v>0.924062421109673</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>4.76491146884775</v>
+        <v>6.68700429228356</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>9.52392092550167</v>
+        <v>9.520405448128</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>17.1420856945789</v>
+        <v>17.3034420888425</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>6.42796234361368</v>
+        <v>7.11602495799458</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-38.6100286743147</v>
+        <v>-39.7808152395212</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.24322850924391</v>
+        <v>1.39866664819468</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>6.47404674600879</v>
+        <v>6.34694767955557</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>2.34114081737091</v>
+        <v>2.19012971266928</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.102214686719542</v>
+        <v>0.618304209060885</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>4.83148294289374</v>
+        <v>6.68633726190728</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>5.67984523669212</v>
+        <v>8.1151599866515</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>16.8636143383942</v>
+        <v>17.2005275932123</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>7.09331827478298</v>
+        <v>7.74363708105033</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-40.5132788210678</v>
+        <v>-39.7673975468668</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.13874972979829</v>
+        <v>1.29540340690851</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>6.56790643426017</v>
+        <v>6.44981944514581</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>2.28064844522603</v>
+        <v>2.13613056898185</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0835229226839087</v>
+        <v>0.525829139846791</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>4.34334367494973</v>
+        <v>6.03953258245271</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>5.43258729411038</v>
+        <v>7.51611067059783</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>15.4790766845562</v>
+        <v>15.8028852912042</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>5.01752301871922</v>
+        <v>6.27896105022662</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-43.0426811025403</v>
+        <v>-39.3513051195276</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.07615809105057</v>
+        <v>1.23265643964806</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>6.4515927531911</v>
+        <v>6.32855063996022</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>2.31204961691339</v>
+        <v>2.17064950949576</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0511351172393297</v>
+        <v>0.0870158028319866</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>5.34812615714525</v>
+        <v>6.15647240218363</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>9.0768346560547</v>
+        <v>9.04643977565035</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>15.5153587885994</v>
+        <v>15.8293264270259</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>6.78885019260658</v>
+        <v>6.94727301126253</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-43.5909419510913</v>
+        <v>-36.6664569510524</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.999191200947169</v>
+        <v>1.15604901207233</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>6.5130879476685</v>
+        <v>6.41204688372103</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>2.12515395261711</v>
+        <v>1.93755938451325</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.049576364636586</v>
+        <v>0.0796585027746788</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>4.80518812415943</v>
+        <v>5.88870523683785</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>5.41575798586747</v>
+        <v>8.64512431317882</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>14.0021476037444</v>
+        <v>14.2929144463846</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>3.94791658898122</v>
+        <v>5.8426694303449</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-41.2176130631018</v>
+        <v>-33.6140273979145</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.944327614324525</v>
+        <v>1.10301538386206</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.31775113508538</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.96212335432015</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0717493058199078</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>5.78123112351105</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>8.42325194587941</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14.1967167404988</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>6.57753981868108</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-31.2235772449049</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.05560925876718</v>
       </c>
     </row>
   </sheetData>
